--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
         <v>219</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" t="n">
         <v>273</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
         <v>199</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
         <v>174</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6" t="n">
         <v>179</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
         <v>166</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" t="n">
         <v>164</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
         <v>170</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="n">
         <v>231</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
         <v>255</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" t="n">
         <v>246</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D14" t="n">
         <v>251</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D15" t="n">
         <v>243</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D16" t="n">
         <v>237</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D17" t="n">
         <v>240</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1591</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>616</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
         <v>219</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
         <v>273</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
         <v>179</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
         <v>166</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>164</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
         <v>170</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
         <v>231</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
         <v>255</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D13" t="n">
         <v>246</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D14" t="n">
         <v>251</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D15" t="n">
         <v>243</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D16" t="n">
         <v>237</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D17" t="n">
         <v>240</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1588</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>359</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
         <v>273</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
         <v>179</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n">
         <v>170</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="n">
         <v>231</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D12" t="n">
         <v>255</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D13" t="n">
         <v>246</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D14" t="n">
         <v>251</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D15" t="n">
         <v>243</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" t="n">
         <v>237</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D17" t="n">
         <v>240</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1577</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>616</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>154</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -484,16 +484,16 @@
         <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E2" t="n">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F2" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G2" t="n">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="E3" t="n">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="F3" t="n">
-        <v>393</v>
+        <v>276</v>
       </c>
       <c r="G3" t="n">
-        <v>492</v>
+        <v>338</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E4" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F4" t="n">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G4" t="n">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="F5" t="n">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="G5" t="n">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="E6" t="n">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F6" t="n">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G6" t="n">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="E7" t="n">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F7" t="n">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G7" t="n">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E8" t="n">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="F8" t="n">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="G8" t="n">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="E9" t="n">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="F9" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="G9" t="n">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="E10" t="n">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="F10" t="n">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="G10" t="n">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" t="n">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E11" t="n">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="F11" t="n">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="G11" t="n">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="E12" t="n">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="F12" t="n">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="G12" t="n">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D13" t="n">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="E13" t="n">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="F13" t="n">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="G13" t="n">
-        <v>444</v>
+        <v>363</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D14" t="n">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="E14" t="n">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="F14" t="n">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="G14" t="n">
-        <v>453</v>
+        <v>367</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         <v>154</v>
       </c>
       <c r="D15" t="n">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="E15" t="n">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="F15" t="n">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="G15" t="n">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D16" t="n">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="E16" t="n">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="F16" t="n">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="G16" t="n">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D17" t="n">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="E17" t="n">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="F17" t="n">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="G17" t="n">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1536</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>618</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
         <v>234</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
         <v>198</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D17" t="n">
         <v>185</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1566</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>616</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>58</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
         <v>234</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
         <v>198</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D17" t="n">
         <v>185</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1526</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>621</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>357</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B2" t="n">
+        <v>62.84117701205984</v>
       </c>
       <c r="C2" t="n">
-        <v>83</v>
+        <v>207.5550964168725</v>
       </c>
       <c r="D2" t="n">
         <v>234</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>382</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>-99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-42.30769230769231</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-142</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-51.26353790613718</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-183</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-57.54716981132076</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-247</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-64.65968586387434</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A3" t="n">
+        <v>109</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35.01801286499612</v>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>183.1546219931837</v>
       </c>
       <c r="D3" t="n">
         <v>198</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>338</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>-89</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-44.94949494949495</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-128</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-54.00843881856539</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-167</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-60.50724637681159</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-229</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-67.75147928994083</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A4" t="n">
+        <v>97</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.70672291618108</v>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>177.2583891131333</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>330</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-50.76142131979695</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-138</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-58.72340425531915</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-64.33823529411765</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-233</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-70.60606060606061</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.884598133890962</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>158.8899668264065</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>338</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>-118</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-59</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-157</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-65.69037656903765</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-196</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-70.50359712230215</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-256</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-75.7396449704142</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.506050252260665</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>158.3738977486529</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>361</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>-127</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-61.35265700483091</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-169</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-67.8714859437751</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-213</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-72.6962457337884</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-281</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-77.8393351800554</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A7" t="n">
+        <v>73</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.614183377073157</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>144.4803360599171</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>337</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>-124</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-62.94416243654823</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-162</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-68.93617021276596</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-202</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-73.45454545454545</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-264</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-78.33827893175074</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A8" t="n">
+        <v>78</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.649126956538445</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>153.4462764811566</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>354</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-60.60606060606061</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-161</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-67.36401673640168</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-206</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-72.53521126760563</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-276</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-77.96610169491525</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A9" t="n">
+        <v>79</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.286157162244494</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>155.3813351056508</v>
       </c>
       <c r="D9" t="n">
         <v>198</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>354</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>-119</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-60.1010101010101</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-160</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-66.94560669456067</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-204</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-72.08480565371025</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-275</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-77.68361581920904</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A10" t="n">
+        <v>73</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.166471708595283</v>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>145.411118932413</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>329</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>-117</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-61.57894736842105</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-155</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-67.98245614035088</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-194</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-72.65917602996255</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-256</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-77.81155015197568</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A11" t="n">
+        <v>77</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4180169636199063</v>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>154.3974652682381</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>333</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>-111</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-59.04255319148937</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-149</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-65.92920353982301</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-191</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-71.26865671641791</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-256</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-76.87687687687688</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A12" t="n">
+        <v>76</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.134731153116215</v>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>152.9581658495647</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>346</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>-116</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-60.41666666666666</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-156</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-67.24137931034483</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-201</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-72.56317689530685</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-270</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-78.03468208092485</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A13" t="n">
+        <v>72</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5.375588250678083</v>
       </c>
       <c r="C13" t="n">
-        <v>119</v>
+        <v>149.0282310720235</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>363</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>-120</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-161</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-69.09871244635193</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-211</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-74.55830388692578</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-291</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-80.16528925619835</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A14" t="n">
+        <v>68</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-11.28931811095723</v>
       </c>
       <c r="C14" t="n">
-        <v>145</v>
+        <v>146.9582533718692</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>367</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>-127</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-65.12820512820512</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-169</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-71.30801687763713</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-219</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-76.30662020905923</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-299</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-81.47138964577657</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A15" t="n">
+        <v>59</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-15.54401611878646</v>
       </c>
       <c r="C15" t="n">
-        <v>142</v>
+        <v>133.1493458157493</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>367</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>-131</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-68.94736842105263</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-173</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-74.56896551724138</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-225</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-79.22535211267606</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-308</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-83.92370572207084</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A16" t="n">
+        <v>57</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-17.35304114086273</v>
       </c>
       <c r="C16" t="n">
-        <v>127</v>
+        <v>132.1207828270429</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>362</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>-129</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-69.35483870967742</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-170</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-74.8898678414097</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-222</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-79.56989247311827</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-305</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-84.25414364640883</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="A17" t="n">
+        <v>51</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-20.41634178542487</v>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>123.3118683146715</v>
       </c>
       <c r="D17" t="n">
         <v>185</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>356</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>-134</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-72.43243243243244</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-175</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-77.43362831858407</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-225</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-81.52173913043478</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-305</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-85.67415730337079</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1266</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>733</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>423</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1783,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1807,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>135</v>
-      </c>
-      <c r="B2" t="n">
-        <v>62.84117701205984</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>207.5550964168725</v>
+        <v>194</v>
       </c>
       <c r="D2" t="n">
         <v>234</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>382</v>
       </c>
-      <c r="H2" t="n">
-        <v>-99</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-42.30769230769231</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-142</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-51.26353790613718</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-183</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-57.54716981132076</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-247</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-64.65968586387434</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>109</v>
-      </c>
-      <c r="B3" t="n">
-        <v>35.01801286499612</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>183.1546219931837</v>
+        <v>166</v>
       </c>
       <c r="D3" t="n">
         <v>198</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>338</v>
       </c>
-      <c r="H3" t="n">
-        <v>-89</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-44.94949494949495</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-128</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-54.00843881856539</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-167</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-60.50724637681159</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-229</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-67.75147928994083</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>97</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16.70672291618108</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>177.2583891131333</v>
+        <v>164</v>
       </c>
       <c r="D4" t="n">
         <v>197</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>330</v>
       </c>
-      <c r="H4" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-50.76142131979695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-138</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-58.72340425531915</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-175</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-64.33823529411765</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-70.60606060606061</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>82</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.884598133890962</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>158.8899668264065</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>338</v>
       </c>
-      <c r="H5" t="n">
-        <v>-118</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-157</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-65.69037656903765</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-196</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-70.50359712230215</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-75.7396449704142</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>80</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.506050252260665</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>158.3738977486529</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
         <v>207</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>361</v>
       </c>
-      <c r="H6" t="n">
-        <v>-127</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-61.35265700483091</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-169</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-67.8714859437751</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-213</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-72.6962457337884</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-281</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-77.8393351800554</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>73</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.614183377073157</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>144.4803360599171</v>
+        <v>164</v>
       </c>
       <c r="D7" t="n">
         <v>197</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>337</v>
       </c>
-      <c r="H7" t="n">
-        <v>-124</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-62.94416243654823</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-162</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-68.93617021276596</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-202</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-73.45454545454545</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-264</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-78.33827893175074</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>78</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.649126956538445</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>153.4462764811566</v>
+        <v>167</v>
       </c>
       <c r="D8" t="n">
         <v>198</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>354</v>
       </c>
-      <c r="H8" t="n">
-        <v>-120</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-60.60606060606061</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-161</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-67.36401673640168</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-206</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-72.53521126760563</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-276</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-77.96610169491525</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>79</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.286157162244494</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>155.3813351056508</v>
+        <v>167</v>
       </c>
       <c r="D9" t="n">
         <v>198</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>354</v>
       </c>
-      <c r="H9" t="n">
-        <v>-119</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-60.1010101010101</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-160</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-66.94560669456067</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-204</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-72.08480565371025</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-275</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-77.68361581920904</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>73</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.166471708595283</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>145.411118932413</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
         <v>190</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>329</v>
       </c>
-      <c r="H10" t="n">
-        <v>-117</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-61.57894736842105</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-155</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-67.98245614035088</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-194</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-72.65917602996255</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-256</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-77.81155015197568</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>77</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.4180169636199063</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>154.3974652682381</v>
+        <v>158</v>
       </c>
       <c r="D11" t="n">
         <v>188</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>333</v>
       </c>
-      <c r="H11" t="n">
-        <v>-111</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-59.04255319148937</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-149</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-65.92920353982301</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-191</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-71.26865671641791</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-76.87687687687688</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>76</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.134731153116215</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>152.9581658495647</v>
+        <v>162</v>
       </c>
       <c r="D12" t="n">
         <v>192</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>346</v>
       </c>
-      <c r="H12" t="n">
-        <v>-116</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-60.41666666666666</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-156</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-67.24137931034483</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-201</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-72.56317689530685</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-270</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-78.03468208092485</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>72</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.375588250678083</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>149.0282310720235</v>
+        <v>163</v>
       </c>
       <c r="D13" t="n">
         <v>192</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>363</v>
       </c>
-      <c r="H13" t="n">
-        <v>-120</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-62.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-161</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-69.09871244635193</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-211</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-74.55830388692578</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-291</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-80.16528925619835</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>68</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-11.28931811095723</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>146.9582533718692</v>
+        <v>166</v>
       </c>
       <c r="D14" t="n">
         <v>195</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>367</v>
       </c>
-      <c r="H14" t="n">
-        <v>-127</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-65.12820512820512</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-169</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-71.30801687763713</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-219</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-76.30662020905923</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-299</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-81.47138964577657</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>59</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-15.54401611878646</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>133.1493458157493</v>
+        <v>162</v>
       </c>
       <c r="D15" t="n">
         <v>190</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>367</v>
       </c>
-      <c r="H15" t="n">
-        <v>-131</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-68.94736842105263</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-173</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-74.56896551724138</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-225</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-79.22535211267606</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-308</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-83.92370572207084</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>57</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-17.35304114086273</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>132.1207828270429</v>
+        <v>159</v>
       </c>
       <c r="D16" t="n">
         <v>186</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>362</v>
       </c>
-      <c r="H16" t="n">
-        <v>-129</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-69.35483870967742</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-170</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-74.8898678414097</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-222</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-79.56989247311827</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-305</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-84.25414364640883</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>51</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-20.41634178542487</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>123.3118683146715</v>
+        <v>158</v>
       </c>
       <c r="D17" t="n">
         <v>185</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>356</v>
       </c>
-      <c r="H17" t="n">
-        <v>-134</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-72.43243243243244</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-175</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-77.43362831858407</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-225</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-81.52173913043478</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-305</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-85.67415730337079</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>2651</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>1363</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>691</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D2" t="n">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="E2" t="n">
-        <v>277</v>
+        <v>423</v>
       </c>
       <c r="F2" t="n">
-        <v>318</v>
+        <v>514</v>
       </c>
       <c r="G2" t="n">
-        <v>382</v>
+        <v>659</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="E3" t="n">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="F3" t="n">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G3" t="n">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="D4" t="n">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="E4" t="n">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="F4" t="n">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="G4" t="n">
-        <v>330</v>
+        <v>492</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G5" t="n">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>81</v>
+      </c>
+      <c r="D6" t="n">
         <v>174</v>
       </c>
-      <c r="D6" t="n">
-        <v>207</v>
-      </c>
       <c r="E6" t="n">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F6" t="n">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="G6" t="n">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E7" t="n">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F7" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G7" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D8" t="n">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E8" t="n">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F8" t="n">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="G8" t="n">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="E9" t="n">
+        <v>199</v>
+      </c>
+      <c r="F9" t="n">
         <v>239</v>
       </c>
-      <c r="F9" t="n">
-        <v>283</v>
-      </c>
       <c r="G9" t="n">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D10" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E10" t="n">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F10" t="n">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G10" t="n">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="D11" t="n">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E11" t="n">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="F11" t="n">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="G11" t="n">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="D12" t="n">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="E12" t="n">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="F12" t="n">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="G12" t="n">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="D13" t="n">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="E13" t="n">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="F13" t="n">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="G13" t="n">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E14" t="n">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F14" t="n">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="G14" t="n">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E15" t="n">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="F15" t="n">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G15" t="n">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="F16" t="n">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="G16" t="n">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="E17" t="n">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="F17" t="n">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="G17" t="n">
-        <v>356</v>
+        <v>437</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-01</t>
+          <t>2022-12-25 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>894</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>294</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>250</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>210</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31515 units</t>
+          <t>30840 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>1463</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>881</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>569</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>196</v>
+        <v>214.5</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>124</v>
+        <v>176.5</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>162.5</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>155.5</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>155.5</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>79</v>
+        <v>154.5</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="D11" t="n">
         <v>215</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D12" t="n">
         <v>231</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>74</v>
+        <v>152.5</v>
       </c>
       <c r="D13" t="n">
         <v>219</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
         <v>221</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>154.5</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>149.5</v>
       </c>
       <c r="D16" t="n">
         <v>215</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="D17" t="n">
         <v>225</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>2572</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>1354</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>742</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>214</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>148</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>214.5</v>
+        <v>207.5</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>176.5</v>
+        <v>173</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>162.5</v>
+        <v>161.5</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>151</v>
+        <v>150.5</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>155.5</v>
+        <v>151.5</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>154.5</v>
+        <v>153.5</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D11" t="n">
         <v>215</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" t="n">
         <v>231</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>152.5</v>
+        <v>151</v>
       </c>
       <c r="D13" t="n">
         <v>219</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" t="n">
         <v>221</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>154.5</v>
+        <v>150</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149.5</v>
+        <v>150</v>
       </c>
       <c r="D16" t="n">
         <v>215</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" t="n">
         <v>225</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>1343</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>731</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>146</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>207.5</v>
+        <v>138.2</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>189</v>
+        <v>119.2</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>173</v>
+        <v>102.2</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>161.5</v>
+        <v>95.7</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>156</v>
+        <v>85.7</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>154</v>
+        <v>84.2</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>150.5</v>
+        <v>82.7</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>151.5</v>
+        <v>82.7</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>153.5</v>
+        <v>84.7</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>148</v>
+        <v>83.7</v>
       </c>
       <c r="D11" t="n">
         <v>215</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>149</v>
+        <v>86.7</v>
       </c>
       <c r="D12" t="n">
         <v>231</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>151</v>
+        <v>83.2</v>
       </c>
       <c r="D13" t="n">
         <v>219</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>84.2</v>
       </c>
       <c r="D14" t="n">
         <v>221</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>150</v>
+        <v>81.2</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>150</v>
+        <v>79.2</v>
       </c>
       <c r="D16" t="n">
         <v>215</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>146</v>
+        <v>79.7</v>
       </c>
       <c r="D17" t="n">
         <v>225</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>1453</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>791</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>455</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -475,33 +475,29 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B2" t="n">
+        <v/>
       </c>
       <c r="C2" t="n">
-        <v>138.2</v>
+        <v>45.2</v>
       </c>
       <c r="D2" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>659</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -510,33 +506,29 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B3" t="n">
+        <v/>
       </c>
       <c r="C3" t="n">
-        <v>119.2</v>
+        <v>45.2</v>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>392</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -545,33 +537,29 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B4" t="n">
+        <v/>
       </c>
       <c r="C4" t="n">
-        <v>102.2</v>
+        <v>45.2</v>
       </c>
       <c r="D4" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>492</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -580,33 +568,29 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="n">
-        <v>95.7</v>
+        <v>45.2</v>
       </c>
       <c r="D5" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>359</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -615,33 +599,29 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B6" t="n">
+        <v/>
       </c>
       <c r="C6" t="n">
-        <v>85.7</v>
+        <v>45.2</v>
       </c>
       <c r="D6" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>327</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -650,33 +630,29 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
-        <v>84.2</v>
+        <v>45.2</v>
       </c>
       <c r="D7" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>344</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -685,33 +661,29 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B8" t="n">
+        <v/>
       </c>
       <c r="C8" t="n">
-        <v>82.7</v>
+        <v>45.2</v>
       </c>
       <c r="D8" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>304</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -720,33 +692,29 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B9" t="n">
+        <v/>
       </c>
       <c r="C9" t="n">
-        <v>82.7</v>
+        <v>45.2</v>
       </c>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>302</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -755,33 +723,29 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B10" t="n">
+        <v/>
       </c>
       <c r="C10" t="n">
-        <v>84.7</v>
+        <v>45.2</v>
       </c>
       <c r="D10" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>319</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -790,33 +754,29 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="n">
-        <v>83.7</v>
+        <v>45.2</v>
       </c>
       <c r="D11" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>406</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -825,33 +785,29 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B12" t="n">
+        <v/>
       </c>
       <c r="C12" t="n">
-        <v>86.7</v>
+        <v>45.2</v>
       </c>
       <c r="D12" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>409</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -860,33 +816,29 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="n">
-        <v>83.2</v>
+        <v>45.2</v>
       </c>
       <c r="D13" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>413</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -895,33 +847,29 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B14" t="n">
+        <v/>
       </c>
       <c r="C14" t="n">
-        <v>84.2</v>
+        <v>45.2</v>
       </c>
       <c r="D14" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -930,33 +878,29 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B15" t="n">
+        <v/>
       </c>
       <c r="C15" t="n">
-        <v>81.2</v>
+        <v>45.2</v>
       </c>
       <c r="D15" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>403</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -965,33 +909,29 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B16" t="n">
+        <v/>
       </c>
       <c r="C16" t="n">
-        <v>79.2</v>
+        <v>45.2</v>
       </c>
       <c r="D16" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>421</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1000,33 +940,29 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BH9DXY38</t>
-        </is>
+      <c r="B17" t="n">
+        <v/>
       </c>
       <c r="C17" t="n">
-        <v>79.7</v>
+        <v>45.2</v>
       </c>
       <c r="D17" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>437</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1088,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>723</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1100,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>362</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1112,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1124,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1148,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1160,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -475,26 +475,30 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>45.2</v>
+        <v>245.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v/>
+        <v>659</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -506,26 +510,30 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>45.2</v>
+        <v>184.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v/>
+        <v>392</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -537,26 +545,30 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>45.2</v>
+        <v>185.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v/>
+        <v>492</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -568,26 +580,30 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>45.2</v>
+        <v>153.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v/>
+        <v>359</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -599,26 +615,30 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>45.2</v>
+        <v>141.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+        <v>327</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -630,26 +650,30 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>45.2</v>
+        <v>137.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+        <v>344</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -661,26 +685,30 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>45.2</v>
+        <v>133.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+        <v>304</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -692,26 +720,30 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>45.2</v>
+        <v>134.9</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v/>
+        <v>302</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -723,26 +755,30 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>45.2</v>
+        <v>134.7</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+        <v>319</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -754,26 +790,30 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>45.2</v>
+        <v>149.2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+        <v>406</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -785,26 +825,30 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>45.2</v>
+        <v>154.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+        <v>409</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -816,26 +860,30 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>45.2</v>
+        <v>148.9</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+        <v>413</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -847,26 +895,30 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>45.2</v>
+        <v>150</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v/>
+        <v>412</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -878,26 +930,30 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>45.2</v>
+        <v>147.8</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v/>
+        <v>403</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -909,26 +965,30 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>45.2</v>
+        <v>141.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v/>
+        <v>421</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -940,26 +1000,30 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>45.2</v>
+        <v>145.2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v/>
+        <v>437</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1088,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>2487</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>1315</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>768</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>245</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>245.3</v>
+        <v>244.3</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>184.4</v>
+        <v>187.9</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>185.1</v>
+        <v>186.6</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153.4</v>
+        <v>154.4</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>141.4</v>
+        <v>140.4</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>137.4</v>
+        <v>134.4</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133.5</v>
+        <v>133</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>134.9</v>
+        <v>133.9</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>149.2</v>
+        <v>147.2</v>
       </c>
       <c r="D11" t="n">
         <v>215</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>154.5</v>
+        <v>154</v>
       </c>
       <c r="D12" t="n">
         <v>231</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>148.9</v>
+        <v>151.9</v>
       </c>
       <c r="D13" t="n">
         <v>219</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>151.5</v>
       </c>
       <c r="D14" t="n">
         <v>221</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>147.8</v>
+        <v>145.8</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>141.2</v>
+        <v>144.2</v>
       </c>
       <c r="D16" t="n">
         <v>215</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>145.2</v>
+        <v>146.7</v>
       </c>
       <c r="D17" t="n">
         <v>225</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>2491</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>773</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>133</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>244.3</v>
+        <v>338.75</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187.9</v>
+        <v>229.65</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>186.6</v>
+        <v>275.3</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154.4</v>
+        <v>212.85</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>140.4</v>
+        <v>192.2</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>134.4</v>
+        <v>196.8</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>133</v>
+        <v>185.25</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133.9</v>
+        <v>183.65</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134.7</v>
+        <v>188.8</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>147.2</v>
+        <v>227.05</v>
       </c>
       <c r="D11" t="n">
         <v>215</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>154</v>
+        <v>239.6</v>
       </c>
       <c r="D12" t="n">
         <v>231</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>151.9</v>
+        <v>230.4</v>
       </c>
       <c r="D13" t="n">
         <v>219</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>151.5</v>
+        <v>231.95</v>
       </c>
       <c r="D14" t="n">
         <v>221</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>145.8</v>
+        <v>228.4</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>144.2</v>
+        <v>227.4</v>
       </c>
       <c r="D16" t="n">
         <v>215</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>146.7</v>
+        <v>235.7</v>
       </c>
       <c r="D17" t="n">
         <v>225</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>3624</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>1814</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1057</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>339</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -500,8 +500,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>338.75</v>
+        <v>245.8</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>229.65</v>
+        <v>188.4</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>275.3</v>
+        <v>185.6</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.85</v>
+        <v>152.4</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>192.2</v>
+        <v>139.4</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>196.8</v>
+        <v>134.9</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>185.25</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>183.65</v>
+        <v>133.4</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>188.8</v>
+        <v>136.2</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>3069</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1312</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>772</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>245.8</v>
+        <v>242.8</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>188.4</v>
+        <v>184.9</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>185.6</v>
+        <v>184.6</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>152.4</v>
+        <v>155.9</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>139.4</v>
+        <v>140.4</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>134.9</v>
+        <v>137.9</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>132</v>
+        <v>134.5</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133.4</v>
+        <v>132.4</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136.2</v>
+        <v>135.2</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1313</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>768</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>242.8</v>
+        <v>246.3</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>184.6</v>
+        <v>188.1</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>155.9</v>
+        <v>152.4</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>140.4</v>
+        <v>139.9</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>137.9</v>
+        <v>136.4</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>134.5</v>
+        <v>134</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>132.4</v>
+        <v>136.4</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>135.2</v>
+        <v>137.2</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>3076</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1318</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>772</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>246.3</v>
+        <v>242</v>
       </c>
       <c r="D2" t="n">
         <v>347</v>
@@ -500,7 +500,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>184.9</v>
+        <v>187</v>
       </c>
       <c r="D3" t="n">
         <v>219</v>
@@ -535,7 +535,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>188.1</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -570,7 +570,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>152.4</v>
+        <v>153</v>
       </c>
       <c r="D5" t="n">
         <v>199</v>
@@ -605,7 +605,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>139.9</v>
+        <v>141</v>
       </c>
       <c r="D6" t="n">
         <v>174</v>
@@ -640,7 +640,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136.4</v>
+        <v>138</v>
       </c>
       <c r="D7" t="n">
         <v>179</v>
@@ -675,7 +675,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D8" t="n">
         <v>166</v>
@@ -710,7 +710,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>136.4</v>
+        <v>133</v>
       </c>
       <c r="D9" t="n">
         <v>164</v>
@@ -745,7 +745,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>137.2</v>
+        <v>136</v>
       </c>
       <c r="D10" t="n">
         <v>170</v>
@@ -780,7 +780,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>227.05</v>
+        <v>227</v>
       </c>
       <c r="D11" t="n">
         <v>215</v>
@@ -815,7 +815,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>239.6</v>
+        <v>240</v>
       </c>
       <c r="D12" t="n">
         <v>231</v>
@@ -850,7 +850,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>230.4</v>
+        <v>230</v>
       </c>
       <c r="D13" t="n">
         <v>219</v>
@@ -885,7 +885,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>231.95</v>
+        <v>232</v>
       </c>
       <c r="D14" t="n">
         <v>221</v>
@@ -920,7 +920,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>228.4</v>
+        <v>228</v>
       </c>
       <c r="D15" t="n">
         <v>217</v>
@@ -955,7 +955,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>227.4</v>
+        <v>227</v>
       </c>
       <c r="D16" t="n">
         <v>215</v>
@@ -990,7 +990,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>235.7</v>
+        <v>236</v>
       </c>
       <c r="D17" t="n">
         <v>225</v>
@@ -1025,7 +1025,7 @@
           <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>3075</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>770</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>242</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D2" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="E2" t="n">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="F2" t="n">
-        <v>514</v>
+        <v>406</v>
       </c>
       <c r="G2" t="n">
-        <v>659</v>
+        <v>477</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>364</v>
       </c>
       <c r="F3" t="n">
-        <v>314</v>
+        <v>420</v>
       </c>
       <c r="G3" t="n">
-        <v>392</v>
+        <v>506</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D4" t="n">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E4" t="n">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F4" t="n">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="G4" t="n">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="D5" t="n">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="F5" t="n">
-        <v>286</v>
+        <v>405</v>
       </c>
       <c r="G5" t="n">
-        <v>359</v>
+        <v>489</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="D6" t="n">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E6" t="n">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="F6" t="n">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="G6" t="n">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="D7" t="n">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E7" t="n">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F7" t="n">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G7" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="D8" t="n">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="E8" t="n">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F8" t="n">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="G8" t="n">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E9" t="n">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="F9" t="n">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="G9" t="n">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="D10" t="n">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E10" t="n">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="G10" t="n">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D11" t="n">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E11" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="F11" t="n">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="G11" t="n">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D12" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="E12" t="n">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="F12" t="n">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="G12" t="n">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D13" t="n">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E13" t="n">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F13" t="n">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="G13" t="n">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D14" t="n">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E14" t="n">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="G14" t="n">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D15" t="n">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E15" t="n">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="F15" t="n">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="G15" t="n">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D16" t="n">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E16" t="n">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F16" t="n">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="G16" t="n">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="D17" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E17" t="n">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="F17" t="n">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="G17" t="n">
-        <v>437</v>
+        <v>354</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-11-24</t>
+          <t>2022-12-25 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>882</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>293</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>244</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30840 units</t>
+          <t>32192 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3075</t>
+          <t>3377</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>829</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>254</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D2" t="n">
         <v>306</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4" t="n">
         <v>301</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="n">
         <v>208</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D7" t="n">
         <v>204</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" t="n">
         <v>196</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" t="n">
         <v>202</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D14" t="n">
         <v>197</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>3376</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1653</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>828</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>253</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" t="n">
         <v>307</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D4" t="n">
         <v>301</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" t="n">
         <v>294</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" t="n">
         <v>204</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D8" t="n">
         <v>196</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" t="n">
         <v>205</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D12" t="n">
         <v>202</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" t="n">
         <v>197</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>3375</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1651</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>829</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>255</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>226</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>306</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>359</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>406</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>477</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>202</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>307</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>364</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>420</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>506</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>198</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>301</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>359</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>416</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>505</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>204</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>294</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>350</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>405</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>489</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>190</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>191</v>
+      </c>
+      <c r="E6" t="n">
         <v>208</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>247</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>286</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>346</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>194</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>204</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>243</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>281</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>340</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>207</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="D8" t="n">
+        <v>206</v>
+      </c>
+      <c r="E8" t="n">
         <v>196</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>235</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>277</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>341</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>231</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>232</v>
+      </c>
+      <c r="E9" t="n">
         <v>205</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>246</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>291</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>360</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>203</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>202</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>241</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>281</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>343</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>203</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>203</v>
       </c>
       <c r="E11" t="n">
+        <v>203</v>
+      </c>
+      <c r="F11" t="n">
         <v>244</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>289</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>360</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>255</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="D12" t="n">
+        <v>204</v>
+      </c>
+      <c r="E12" t="n">
         <v>202</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>245</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>294</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>371</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>243</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>242</v>
+      </c>
+      <c r="E13" t="n">
         <v>201</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>244</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>293</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>371</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>245</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
       </c>
       <c r="D14" t="n">
+        <v>246</v>
+      </c>
+      <c r="E14" t="n">
         <v>197</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>239</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>286</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>361</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>192</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>190</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>231</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>279</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>354</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>192</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>188</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>229</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>278</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>355</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>192</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>189</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>230</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>278</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>354</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z790 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3375</t>
+          <t>3326</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1653</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>830</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>191</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>307</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E4" t="n">
         <v>301</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" t="n">
         <v>294</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" t="n">
         <v>208</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E7" t="n">
         <v>204</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E8" t="n">
         <v>196</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="E10" t="n">
         <v>202</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E12" t="n">
         <v>202</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E14" t="n">
         <v>197</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3326</t>
+          <t>3422</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1650</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>825</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>189</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" t="n">
         <v>306</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E3" t="n">
         <v>307</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E5" t="n">
         <v>294</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E6" t="n">
         <v>208</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" t="n">
         <v>204</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E8" t="n">
         <v>196</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="E10" t="n">
         <v>202</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="E12" t="n">
         <v>202</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E13" t="n">
         <v>201</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E14" t="n">
         <v>197</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3422</t>
+          <t>3325</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>827</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>191</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E2" t="n">
         <v>306</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E5" t="n">
         <v>294</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E7" t="n">
         <v>204</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="E10" t="n">
         <v>202</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="E12" t="n">
         <v>202</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13" t="n">
         <v>201</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E14" t="n">
         <v>197</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>3432</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1654</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>828</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="E2" t="n">
         <v>306</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
         <v>307</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E4" t="n">
         <v>301</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="E5" t="n">
         <v>294</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E6" t="n">
         <v>208</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E7" t="n">
         <v>204</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="E8" t="n">
         <v>196</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="E9" t="n">
         <v>205</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="E10" t="n">
         <v>202</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="E11" t="n">
         <v>203</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E12" t="n">
         <v>202</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E13" t="n">
         <v>201</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E14" t="n">
         <v>197</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="E15" t="n">
         <v>190</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="E16" t="n">
         <v>188</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="E17" t="n">
         <v>189</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>884</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>291</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>32192 units</t>
+          <t>32332 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3432</t>
+          <t>3913</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1589</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>613</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>312</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E2" t="n">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F2" t="n">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="G2" t="n">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="H2" t="n">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="E3" t="n">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="F3" t="n">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="G3" t="n">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="H3" t="n">
-        <v>506</v>
+        <v>445</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E4" t="n">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="F4" t="n">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="G4" t="n">
-        <v>416</v>
+        <v>264</v>
       </c>
       <c r="H4" t="n">
-        <v>505</v>
+        <v>313</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E5" t="n">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="F5" t="n">
-        <v>350</v>
+        <v>228</v>
       </c>
       <c r="G5" t="n">
-        <v>405</v>
+        <v>260</v>
       </c>
       <c r="H5" t="n">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -654,16 +654,16 @@
         <v>194</v>
       </c>
       <c r="E6" t="n">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F6" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G6" t="n">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="H6" t="n">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,16 +694,16 @@
         <v>218</v>
       </c>
       <c r="E7" t="n">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F7" t="n">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G7" t="n">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="H7" t="n">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="E8" t="n">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F8" t="n">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G8" t="n">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H8" t="n">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="E9" t="n">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F9" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G9" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H9" t="n">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="E10" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F10" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G10" t="n">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H10" t="n">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F11" t="n">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G11" t="n">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="H11" t="n">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E12" t="n">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F12" t="n">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="G12" t="n">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="H12" t="n">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E13" t="n">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F13" t="n">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G13" t="n">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="H13" t="n">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E14" t="n">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F14" t="n">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G14" t="n">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="H14" t="n">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="E15" t="n">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F15" t="n">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="G15" t="n">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H15" t="n">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="E16" t="n">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F16" t="n">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="G16" t="n">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="H16" t="n">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="E17" t="n">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F17" t="n">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G17" t="n">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H17" t="n">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>880</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>290</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>207</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>32332 units</t>
+          <t>32482 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>3320</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1562</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>712</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>249</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>170</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="E8" t="n">
         <v>187</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E14" t="n">
         <v>180</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E15" t="n">
         <v>174</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3370</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1612</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="E2" t="n">
         <v>266</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="E3" t="n">
         <v>277</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="E7" t="n">
         <v>193</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="E8" t="n">
         <v>187</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="E9" t="n">
         <v>199</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="E10" t="n">
         <v>192</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="E11" t="n">
         <v>186</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="E12" t="n">
         <v>185</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="E13" t="n">
         <v>182</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="E14" t="n">
         <v>180</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="E15" t="n">
         <v>174</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="E16" t="n">
         <v>173</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="E17" t="n">
         <v>170</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>3830</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1687</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>610</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>119</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7" t="n">
         <v>193</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" t="n">
         <v>192</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" t="n">
         <v>185</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E13" t="n">
         <v>182</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E15" t="n">
         <v>174</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" t="n">
         <v>173</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17" t="n">
         <v>170</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>3823</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1686</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>609</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>346</v>
       </c>
       <c r="E2" t="n">
         <v>266</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="E3" t="n">
         <v>277</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="E5" t="n">
         <v>194</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E7" t="n">
         <v>193</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="E8" t="n">
         <v>187</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="E9" t="n">
         <v>199</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="E10" t="n">
         <v>192</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E11" t="n">
         <v>186</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="E12" t="n">
         <v>185</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="E13" t="n">
         <v>182</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E14" t="n">
         <v>180</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E15" t="n">
         <v>174</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E16" t="n">
         <v>173</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="E17" t="n">
         <v>170</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>884</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>218</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>32482 units</t>
+          <t>32490 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>2222</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>1214</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>360</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
         <v>194</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="E17" t="n">
         <v>170</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>875</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>289</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>206</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>32490 units</t>
+          <t>32626 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>3928</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2054</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1065</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E5" t="n">
         <v>194</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>3943</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>2069</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1075</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>173</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" t="n">
         <v>197</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E6" t="n">
         <v>196</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>3944</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2069</t>
+          <t>2070</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1074</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="E2" t="n">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="G2" t="n">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="H2" t="n">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="E3" t="n">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="F3" t="n">
-        <v>327</v>
+        <v>196</v>
       </c>
       <c r="G3" t="n">
-        <v>373</v>
+        <v>225</v>
       </c>
       <c r="H3" t="n">
-        <v>445</v>
+        <v>269</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" t="n">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F4" t="n">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G4" t="n">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="H4" t="n">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E5" t="n">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="F5" t="n">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="G5" t="n">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="H5" t="n">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E6" t="n">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F6" t="n">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="G6" t="n">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="H6" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E7" t="n">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F7" t="n">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G7" t="n">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="H7" t="n">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="E8" t="n">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F8" t="n">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="G8" t="n">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="H8" t="n">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="E9" t="n">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F9" t="n">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G9" t="n">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H9" t="n">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="E10" t="n">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F10" t="n">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="G10" t="n">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="H10" t="n">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="E11" t="n">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F11" t="n">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="G11" t="n">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="H11" t="n">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>216</v>
+      </c>
+      <c r="E12" t="n">
+        <v>166</v>
+      </c>
+      <c r="F12" t="n">
+        <v>201</v>
+      </c>
+      <c r="G12" t="n">
         <v>240</v>
       </c>
-      <c r="E12" t="n">
-        <v>185</v>
-      </c>
-      <c r="F12" t="n">
-        <v>224</v>
-      </c>
-      <c r="G12" t="n">
-        <v>266</v>
-      </c>
       <c r="H12" t="n">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E13" t="n">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F13" t="n">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="H13" t="n">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E14" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F14" t="n">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G14" t="n">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="H14" t="n">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>202</v>
+      </c>
+      <c r="E15" t="n">
+        <v>155</v>
+      </c>
+      <c r="F15" t="n">
+        <v>188</v>
+      </c>
+      <c r="G15" t="n">
         <v>226</v>
       </c>
-      <c r="E15" t="n">
-        <v>174</v>
-      </c>
-      <c r="F15" t="n">
-        <v>210</v>
-      </c>
-      <c r="G15" t="n">
-        <v>252</v>
-      </c>
       <c r="H15" t="n">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E16" t="n">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F16" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G16" t="n">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="H16" t="n">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>198</v>
+      </c>
+      <c r="E17" t="n">
+        <v>152</v>
+      </c>
+      <c r="F17" t="n">
+        <v>184</v>
+      </c>
+      <c r="G17" t="n">
         <v>221</v>
       </c>
-      <c r="E17" t="n">
-        <v>170</v>
-      </c>
-      <c r="F17" t="n">
-        <v>206</v>
-      </c>
-      <c r="G17" t="n">
-        <v>246</v>
-      </c>
       <c r="H17" t="n">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>876</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>287</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>214</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>32626 units</t>
+          <t>32750 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3944</t>
+          <t>3363</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>1686</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>810</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>153</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" t="n">
         <v>166</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E4" t="n">
         <v>168</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5" t="n">
         <v>170</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9" t="n">
         <v>178</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3364</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1687</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>812</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>155</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" t="n">
         <v>166</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3364</t>
+          <t>3362</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1685</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>810</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
+++ b/Sufficient data/forecast_summary_B0BH9DXY38.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" t="n">
         <v>166</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" t="n">
         <v>168</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E5" t="n">
         <v>170</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>3364</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1687</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>812</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
     </row>
